--- a/Equipe107.xlsx
+++ b/Equipe107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2027B42F-169E-468E-922C-718797DE154A}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB7B310-602D-4E40-8143-D7E2EACA1DD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
   <si>
     <t>Fonct.</t>
   </si>
@@ -149,6 +149,9 @@
 PlaceLetterComponent</t>
   </si>
   <si>
+    <t>PlaceLetterService isFirstRound</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
     <t>Regrouper les constantes dans le fichier fait à cet effet</t>
   </si>
   <si>
+    <t>this.url devrait être une variable d'env</t>
+  </si>
+  <si>
     <t>4.2 Utilisation de constantes</t>
   </si>
   <si>
@@ -247,6 +253,9 @@
     <t>Les variables et les constantes ont des noms explicites et sont uniformes dans tous les fichiers. Le format à utiliser pour les variables est le camelCase et pour les constantes est SCREAMING_SNAKE_CASE. La troncation des noms ne doit pas être excessive. (ex: utiliser background au lieu de seulement bg)</t>
   </si>
   <si>
+    <t>Faites la difference entre variable locale et constantes (p.e: EQUAL_SORT_NUMBER)</t>
+  </si>
+  <si>
     <t>5. Expression booléennes</t>
   </si>
   <si>
@@ -257,6 +266,9 @@
   </si>
   <si>
     <t>PlayerIaComponent</t>
+  </si>
+  <si>
+    <t>reserveHasEnoughLetters</t>
   </si>
   <si>
     <t>5.2 Logique booléenne négative</t>
@@ -275,6 +287,10 @@
 PlaceLetterComponent place</t>
   </si>
   <si>
+    <t>computeRoomState
+isCasePositionValid</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -286,6 +302,10 @@
 PlaceLetterComponent isWordFitting, isPosInBounds</t>
   </si>
   <si>
+    <t>isWordFitting combiner les expressions
+isPositionFilled</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -305,6 +325,9 @@
   </si>
   <si>
     <t>Pas de style dans le html</t>
+  </si>
+  <si>
+    <t>Pas de style dans le html (p.e: play-area.component.html)</t>
   </si>
   <si>
     <t>6.3 Indentation et organisation</t>
@@ -351,6 +374,9 @@
   </si>
   <si>
     <t>Petite duplication entre getWordHorizontalPositions et getWordVerticalPositions</t>
+  </si>
+  <si>
+    <t>Duplication entre goToNextVerticalCase et goToNextHorizintalCase</t>
   </si>
   <si>
     <t>6.9 ESLint</t>
@@ -509,6 +535,9 @@
     <t>2.1 Mode multijoueur</t>
   </si>
   <si>
+    <t>Petit bug lorsqu'on commence une partie multijoueur apres une partie solo</t>
+  </si>
+  <si>
     <t>2.2 Clavarder</t>
   </si>
   <si>
@@ -527,13 +556,22 @@
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>Un seul type de selection devrait être permis à la fois</t>
+  </si>
+  <si>
     <t>2.8 Abandonner une partie</t>
   </si>
   <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t>Vous auriez pu prendre les flèches en haut et en bas pour être cohérent avec l'orientation de votre chevalet</t>
+  </si>
+  <si>
     <t>2.10 Commande réserve</t>
+  </si>
+  <si>
+    <t>Une erreur dans la console client au début d'une parte multi</t>
   </si>
   <si>
     <t>Ne build pas</t>
@@ -1394,7 +1432,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2242,6 +2280,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2251,7 +2292,7 @@
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2701,22 +2742,22 @@
       </c>
       <c r="B5" s="216">
         <f>(Fonctionnalités!E36)</f>
-        <v>0</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="C5" s="217">
         <f>'Assurance Qualité'!F61</f>
-        <v>0</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="D5" s="217">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.93909999999999993</v>
       </c>
       <c r="F5" s="13">
         <v>25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>23.477499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2768,8 +2809,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="C61:E61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2942,7 +2983,9 @@
       <c r="E9" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="53">
+        <v>1</v>
+      </c>
       <c r="G9" s="48">
         <v>3</v>
       </c>
@@ -2969,7 +3012,9 @@
         <v>2</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
       <c r="G10" s="33">
         <v>2</v>
       </c>
@@ -2998,7 +3043,9 @@
       <c r="E11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
       <c r="G11" s="33">
         <v>3</v>
       </c>
@@ -3027,7 +3074,9 @@
       <c r="E12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
       <c r="G12" s="33">
         <v>2</v>
       </c>
@@ -3056,11 +3105,15 @@
       <c r="E13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="37">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="39"/>
       <c r="J13" s="34">
         <v>4</v>
@@ -3071,7 +3124,7 @@
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A14" s="227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="228"/>
       <c r="C14" s="87">
@@ -3085,7 +3138,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="90">
         <f>SUMPRODUCT(F9:F13,G9:G13)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G14" s="91">
         <f>SUM(G9:G13)</f>
@@ -3106,7 +3159,7 @@
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
       <c r="A15" s="234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="235"/>
       <c r="C15" s="225" t="s">
@@ -3131,10 +3184,10 @@
     </row>
     <row r="16" spans="1:17" ht="45">
       <c r="A16" s="78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="62">
         <v>0.75</v>
@@ -3143,9 +3196,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="68"/>
+        <v>38</v>
+      </c>
+      <c r="F16" s="68">
+        <v>1</v>
+      </c>
       <c r="G16" s="69">
         <v>2</v>
       </c>
@@ -3160,10 +3215,10 @@
     </row>
     <row r="17" spans="1:13" ht="60">
       <c r="A17" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="45">
         <v>0.75</v>
@@ -3172,9 +3227,11 @@
         <v>3</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="71"/>
+        <v>41</v>
+      </c>
+      <c r="F17" s="71">
+        <v>1</v>
+      </c>
       <c r="G17" s="42">
         <v>3</v>
       </c>
@@ -3189,10 +3246,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3201,7 +3258,9 @@
         <v>3</v>
       </c>
       <c r="E18" s="65"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="71">
+        <v>1</v>
+      </c>
       <c r="G18" s="42">
         <v>3</v>
       </c>
@@ -3216,10 +3275,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3228,7 +3287,9 @@
         <v>3</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="71">
+        <v>1</v>
+      </c>
       <c r="G19" s="42">
         <v>3</v>
       </c>
@@ -3243,10 +3304,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3255,7 +3316,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="71">
+        <v>1</v>
+      </c>
       <c r="G20" s="42">
         <v>2</v>
       </c>
@@ -3270,7 +3333,7 @@
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="233"/>
       <c r="C21" s="98">
@@ -3284,7 +3347,7 @@
       <c r="E21" s="100"/>
       <c r="F21" s="101">
         <f>SUMPRODUCT(F16:F20,G16:G20)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G21" s="102">
         <f>SUM(G16:G20)</f>
@@ -3305,7 +3368,7 @@
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A22" s="229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="230"/>
       <c r="C22" s="225" t="s">
@@ -3330,10 +3393,10 @@
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
@@ -3342,7 +3405,9 @@
         <v>2</v>
       </c>
       <c r="E23" s="86"/>
-      <c r="F23" s="109"/>
+      <c r="F23" s="109">
+        <v>1</v>
+      </c>
       <c r="G23" s="110">
         <v>2</v>
       </c>
@@ -3357,10 +3422,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="45">
         <v>1</v>
@@ -3369,7 +3434,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="65"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="71">
+        <v>1</v>
+      </c>
       <c r="G24" s="42">
         <v>1</v>
       </c>
@@ -3384,10 +3451,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3396,7 +3463,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="65"/>
-      <c r="F25" s="71"/>
+      <c r="F25" s="71">
+        <v>1</v>
+      </c>
       <c r="G25" s="42">
         <v>1</v>
       </c>
@@ -3411,7 +3480,7 @@
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A26" s="232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="233"/>
       <c r="C26" s="87">
@@ -3425,7 +3494,7 @@
       <c r="E26" s="89"/>
       <c r="F26" s="101">
         <f>SUMPRODUCT(F23:F25,G23:G25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="102">
         <f>SUM(G23:G25)</f>
@@ -3446,7 +3515,7 @@
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A27" s="229" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="230"/>
       <c r="C27" s="225" t="s">
@@ -3454,31 +3523,31 @@
       </c>
       <c r="D27" s="226"/>
       <c r="E27" s="60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="225" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="226"/>
       <c r="H27" s="59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I27" s="225" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="226"/>
       <c r="K27" s="60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="112">
         <v>0.75</v>
@@ -3487,13 +3556,17 @@
         <v>2</v>
       </c>
       <c r="E28" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="107"/>
+        <v>59</v>
+      </c>
+      <c r="F28" s="107">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="66">
         <v>2</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="67" t="s">
+        <v>60</v>
+      </c>
       <c r="I28" s="118"/>
       <c r="J28" s="73">
         <v>2</v>
@@ -3504,10 +3577,10 @@
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3516,7 +3589,9 @@
         <v>2</v>
       </c>
       <c r="E29" s="65"/>
-      <c r="F29" s="71"/>
+      <c r="F29" s="71">
+        <v>1</v>
+      </c>
       <c r="G29" s="42">
         <v>2</v>
       </c>
@@ -3531,10 +3606,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3543,7 +3618,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="65"/>
-      <c r="F30" s="71"/>
+      <c r="F30" s="71">
+        <v>1</v>
+      </c>
       <c r="G30" s="42">
         <v>2</v>
       </c>
@@ -3558,10 +3635,10 @@
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="45">
         <v>1</v>
@@ -3570,11 +3647,15 @@
         <v>3</v>
       </c>
       <c r="E31" s="65"/>
-      <c r="F31" s="71"/>
+      <c r="F31" s="71">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="42">
         <v>3</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="I31" s="77"/>
       <c r="J31" s="44">
         <v>3</v>
@@ -3585,7 +3666,7 @@
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A32" s="227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="228"/>
       <c r="C32" s="87">
@@ -3599,7 +3680,7 @@
       <c r="E32" s="89"/>
       <c r="F32" s="90">
         <f>SUMPRODUCT(F28:F31,G28:G31)</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="G32" s="91">
         <f>SUM(G28:G31)</f>
@@ -3620,7 +3701,7 @@
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A33" s="229" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="231"/>
       <c r="C33" s="225" t="s">
@@ -3643,12 +3724,12 @@
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="30">
       <c r="A34" s="120" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="112">
         <v>0</v>
@@ -3657,13 +3738,17 @@
         <v>1</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="107"/>
+        <v>71</v>
+      </c>
+      <c r="F34" s="107">
+        <v>0</v>
+      </c>
       <c r="G34" s="66">
         <v>1</v>
       </c>
-      <c r="H34" s="108"/>
+      <c r="H34" s="108" t="s">
+        <v>72</v>
+      </c>
       <c r="I34" s="118"/>
       <c r="J34" s="73">
         <v>1</v>
@@ -3674,10 +3759,10 @@
     </row>
     <row r="35" spans="1:13" ht="30">
       <c r="A35" s="56" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C35" s="45">
         <v>1</v>
@@ -3686,7 +3771,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="65"/>
-      <c r="F35" s="71"/>
+      <c r="F35" s="71">
+        <v>1</v>
+      </c>
       <c r="G35" s="42">
         <v>1</v>
       </c>
@@ -3701,10 +3788,10 @@
     </row>
     <row r="36" spans="1:13" ht="75">
       <c r="A36" s="21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="45">
         <v>0.5</v>
@@ -3713,13 +3800,17 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="71"/>
+        <v>77</v>
+      </c>
+      <c r="F36" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G36" s="42">
         <v>3</v>
       </c>
-      <c r="H36" s="72"/>
+      <c r="H36" s="72" t="s">
+        <v>78</v>
+      </c>
       <c r="I36" s="77"/>
       <c r="J36" s="44">
         <v>3</v>
@@ -3730,10 +3821,10 @@
     </row>
     <row r="37" spans="1:13" ht="90">
       <c r="A37" s="21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C37" s="45">
         <v>0.25</v>
@@ -3742,13 +3833,17 @@
         <v>3</v>
       </c>
       <c r="E37" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="71"/>
+        <v>81</v>
+      </c>
+      <c r="F37" s="71">
+        <v>0.5</v>
+      </c>
       <c r="G37" s="42">
         <v>3</v>
       </c>
-      <c r="H37" s="72"/>
+      <c r="H37" s="72" t="s">
+        <v>82</v>
+      </c>
       <c r="I37" s="77"/>
       <c r="J37" s="44">
         <v>3</v>
@@ -3759,7 +3854,7 @@
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A38" s="227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="228"/>
       <c r="C38" s="122">
@@ -3773,7 +3868,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="123">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="91">
         <f>SUM(G34:G37)</f>
@@ -3794,7 +3889,7 @@
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A39" s="229" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B39" s="230"/>
       <c r="C39" s="225" t="s">
@@ -3802,31 +3897,31 @@
       </c>
       <c r="D39" s="226"/>
       <c r="E39" s="59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="225" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="226"/>
       <c r="H39" s="60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" s="225" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="226"/>
       <c r="K39" s="60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="60">
       <c r="A40" s="78" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C40" s="84">
         <v>0.5</v>
@@ -3835,9 +3930,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="109"/>
+        <v>86</v>
+      </c>
+      <c r="F40" s="109">
+        <v>1</v>
+      </c>
       <c r="G40" s="110">
         <v>1</v>
       </c>
@@ -3850,12 +3947,12 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="30">
+    <row r="41" spans="1:13" ht="45">
       <c r="A41" s="21" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C41" s="45">
         <v>0.5</v>
@@ -3864,13 +3961,17 @@
         <v>4</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="71"/>
+        <v>89</v>
+      </c>
+      <c r="F41" s="71">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="42">
         <v>4</v>
       </c>
-      <c r="H41" s="72"/>
+      <c r="H41" s="72" t="s">
+        <v>90</v>
+      </c>
       <c r="I41" s="77"/>
       <c r="J41" s="44">
         <v>4</v>
@@ -3881,10 +3982,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -3893,7 +3994,9 @@
         <v>3</v>
       </c>
       <c r="E42" s="65"/>
-      <c r="F42" s="71"/>
+      <c r="F42" s="71">
+        <v>1</v>
+      </c>
       <c r="G42" s="42">
         <v>3</v>
       </c>
@@ -3908,10 +4011,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C43" s="45">
         <v>0.25</v>
@@ -3920,9 +4023,11 @@
         <v>2</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="71"/>
+        <v>95</v>
+      </c>
+      <c r="F43" s="71">
+        <v>1</v>
+      </c>
       <c r="G43" s="42">
         <v>2</v>
       </c>
@@ -3936,10 +4041,10 @@
     </row>
     <row r="44" spans="1:13" ht="45">
       <c r="A44" s="21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C44" s="35">
         <v>1</v>
@@ -3948,9 +4053,11 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>98</v>
+      </c>
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
       <c r="G44" s="33">
         <v>2</v>
       </c>
@@ -3965,10 +4072,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -3977,7 +4084,9 @@
         <v>3</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="F45" s="37">
+        <v>1</v>
+      </c>
       <c r="G45" s="33">
         <v>3</v>
       </c>
@@ -3992,10 +4101,10 @@
     </row>
     <row r="46" spans="1:13" ht="30">
       <c r="A46" s="21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C46" s="45">
         <v>1</v>
@@ -4004,7 +4113,9 @@
         <v>3</v>
       </c>
       <c r="E46" s="65"/>
-      <c r="F46" s="71"/>
+      <c r="F46" s="71">
+        <v>1</v>
+      </c>
       <c r="G46" s="42">
         <v>3</v>
       </c>
@@ -4019,10 +4130,10 @@
     </row>
     <row r="47" spans="1:13" ht="60">
       <c r="A47" s="21" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C47" s="45">
         <v>0.5</v>
@@ -4031,13 +4142,17 @@
         <v>6</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="71"/>
+        <v>105</v>
+      </c>
+      <c r="F47" s="71">
+        <v>0.75</v>
+      </c>
       <c r="G47" s="42">
         <v>6</v>
       </c>
-      <c r="H47" s="72"/>
+      <c r="H47" s="72" t="s">
+        <v>106</v>
+      </c>
       <c r="I47" s="77"/>
       <c r="J47" s="44">
         <v>6</v>
@@ -4048,10 +4163,10 @@
     </row>
     <row r="48" spans="1:13" ht="45">
       <c r="A48" s="21" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C48" s="45">
         <v>0</v>
@@ -4060,9 +4175,11 @@
         <v>8</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="71"/>
+        <v>109</v>
+      </c>
+      <c r="F48" s="71">
+        <v>1</v>
+      </c>
       <c r="G48" s="42">
         <v>8</v>
       </c>
@@ -4077,10 +4194,10 @@
     </row>
     <row r="49" spans="1:13" ht="30">
       <c r="A49" s="21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C49" s="45">
         <v>1</v>
@@ -4089,7 +4206,9 @@
         <v>6</v>
       </c>
       <c r="E49" s="65"/>
-      <c r="F49" s="71"/>
+      <c r="F49" s="71">
+        <v>1</v>
+      </c>
       <c r="G49" s="42">
         <v>6</v>
       </c>
@@ -4104,10 +4223,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4116,7 +4235,9 @@
         <v>3</v>
       </c>
       <c r="E50" s="65"/>
-      <c r="F50" s="71"/>
+      <c r="F50" s="71">
+        <v>1</v>
+      </c>
       <c r="G50" s="42">
         <v>3</v>
       </c>
@@ -4131,7 +4252,7 @@
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="15.75">
       <c r="A51" s="227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B51" s="228"/>
       <c r="C51" s="132">
@@ -4145,7 +4266,7 @@
       <c r="E51" s="100"/>
       <c r="F51" s="123">
         <f>SUMPRODUCT(F40:F50,G40:G50)</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="G51" s="91">
         <f>SUM(G40:G50)</f>
@@ -4166,7 +4287,7 @@
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A52" s="229" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B52" s="231"/>
       <c r="C52" s="225" t="s">
@@ -4191,10 +4312,10 @@
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="78" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C53" s="112">
         <v>1</v>
@@ -4203,7 +4324,9 @@
         <v>2</v>
       </c>
       <c r="E53" s="113"/>
-      <c r="F53" s="109"/>
+      <c r="F53" s="109">
+        <v>1</v>
+      </c>
       <c r="G53" s="110">
         <v>2</v>
       </c>
@@ -4218,10 +4341,10 @@
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C54" s="45">
         <v>0</v>
@@ -4230,9 +4353,11 @@
         <v>2</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="71"/>
+        <v>119</v>
+      </c>
+      <c r="F54" s="71">
+        <v>1</v>
+      </c>
       <c r="G54" s="42">
         <v>2</v>
       </c>
@@ -4247,10 +4372,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="56" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C55" s="45">
         <v>0</v>
@@ -4259,7 +4384,9 @@
         <v>1</v>
       </c>
       <c r="E55" s="65"/>
-      <c r="F55" s="71"/>
+      <c r="F55" s="71">
+        <v>1</v>
+      </c>
       <c r="G55" s="42">
         <v>1</v>
       </c>
@@ -4274,10 +4401,10 @@
     </row>
     <row r="56" spans="1:13" ht="120">
       <c r="A56" s="56" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C56" s="45">
         <v>0.5</v>
@@ -4286,9 +4413,11 @@
         <v>4</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="71"/>
+        <v>124</v>
+      </c>
+      <c r="F56" s="71">
+        <v>1</v>
+      </c>
       <c r="G56" s="42">
         <v>4</v>
       </c>
@@ -4303,10 +4432,10 @@
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4315,7 +4444,9 @@
         <v>2</v>
       </c>
       <c r="E57" s="65"/>
-      <c r="F57" s="71"/>
+      <c r="F57" s="71">
+        <v>1</v>
+      </c>
       <c r="G57" s="42">
         <v>2</v>
       </c>
@@ -4330,7 +4461,7 @@
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A58" s="227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58" s="228"/>
       <c r="C58" s="98">
@@ -4344,7 +4475,7 @@
       <c r="E58" s="100"/>
       <c r="F58" s="101">
         <f>SUMPRODUCT(F53:F57,G53:G57)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G58" s="102">
         <f>SUM(G53:G57)</f>
@@ -4382,7 +4513,7 @@
     </row>
     <row r="60" spans="1:13" ht="105">
       <c r="A60" s="256" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B60" s="257"/>
       <c r="C60" s="133">
@@ -4394,11 +4525,11 @@
         <v>100</v>
       </c>
       <c r="E60" s="64" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F60" s="134">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.25</v>
       </c>
       <c r="G60" s="69">
         <f t="shared" si="0"/>
@@ -4419,7 +4550,7 @@
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
       <c r="A61" s="258" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B61" s="259"/>
       <c r="C61" s="260">
@@ -4430,7 +4561,7 @@
       <c r="E61" s="262"/>
       <c r="F61" s="263">
         <f>F60/G60</f>
-        <v>0</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="G61" s="264"/>
       <c r="H61" s="265"/>
@@ -4514,8 +4645,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4550,7 +4681,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="137" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -4573,7 +4704,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B7" s="280"/>
       <c r="C7" s="280"/>
@@ -4584,19 +4715,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="210" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B8" s="189" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D8" s="189" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="189" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F8" s="189" t="s">
         <v>17</v>
@@ -4607,7 +4738,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="148" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B9" s="141">
         <v>1</v>
@@ -4623,13 +4754,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="149"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="191" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B10" s="192">
         <v>0.9</v>
@@ -4645,13 +4776,13 @@
         <v>4.5</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="193"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="148" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B11" s="141">
         <v>0.75</v>
@@ -4667,13 +4798,13 @@
         <v>6.75</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="149"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="191" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B12" s="192">
         <v>1</v>
@@ -4689,13 +4820,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="192" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="193"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="148" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B13" s="141">
         <v>1</v>
@@ -4714,12 +4845,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="224" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="148" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B14" s="141">
         <v>1</v>
@@ -4738,12 +4869,12 @@
         <v>18</v>
       </c>
       <c r="G14" s="149" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="191" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B15" s="192">
         <v>0.95</v>
@@ -4762,12 +4893,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="193" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
       <c r="A16" s="148" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B16" s="141">
         <v>0.8</v>
@@ -4786,12 +4917,12 @@
         <v>18</v>
       </c>
       <c r="G16" s="224" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="191" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B17" s="192">
         <v>1</v>
@@ -4813,7 +4944,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B18" s="141">
         <v>0</v>
@@ -4829,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="149"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="191" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B19" s="192">
         <v>1</v>
@@ -4854,12 +4985,12 @@
         <v>18</v>
       </c>
       <c r="G19" s="193" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="171" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B20" s="282"/>
       <c r="C20" s="282"/>
@@ -4876,7 +5007,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="191" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -4888,12 +5019,12 @@
       </c>
       <c r="F21" s="194"/>
       <c r="G21" s="196" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="150" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
@@ -4917,7 +5048,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B24" s="270"/>
       <c r="C24" s="270"/>
@@ -4928,19 +5059,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="209" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B25" s="197" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="197" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D25" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="197" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>17</v>
@@ -4949,209 +5080,235 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="154" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B26" s="142">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C26" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="142">
         <v>24</v>
       </c>
       <c r="E26" s="142">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="142"/>
-      <c r="G26" s="162"/>
+        <v>21.6</v>
+      </c>
+      <c r="F26" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="286" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="199" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B27" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="200">
         <v>8</v>
       </c>
       <c r="E27" s="200">
         <f t="shared" ref="E27:E35" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="200"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="200" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="201"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="154" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B28" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="142">
         <v>10</v>
       </c>
       <c r="E28" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="142"/>
+        <v>10</v>
+      </c>
+      <c r="F28" s="142" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="162"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7">
       <c r="A29" s="199" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B29" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="200">
         <v>8</v>
       </c>
       <c r="E29" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="200"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="200" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="201"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="154" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B30" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="142">
         <v>10</v>
       </c>
       <c r="E30" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="142"/>
+        <v>10</v>
+      </c>
+      <c r="F30" s="142" t="s">
+        <v>56</v>
+      </c>
       <c r="G30" s="162"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="199" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B31" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="200">
         <v>12</v>
       </c>
       <c r="E31" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="200"/>
+        <v>12</v>
+      </c>
+      <c r="F31" s="200" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="201"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="154" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B32" s="142">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C32" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="142">
         <v>10</v>
       </c>
       <c r="E32" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="142"/>
-      <c r="G32" s="162"/>
+        <v>9.5</v>
+      </c>
+      <c r="F32" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="162" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="199" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B33" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="200">
         <v>4</v>
       </c>
       <c r="E33" s="200">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="200"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="200" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="201"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="154" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B34" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="142">
         <v>10</v>
       </c>
       <c r="E34" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="142"/>
-      <c r="G34" s="162"/>
+        <v>10</v>
+      </c>
+      <c r="F34" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="286" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="154" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B35" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="142">
         <v>4</v>
       </c>
       <c r="E35" s="142">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="142"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="142" t="s">
+        <v>56</v>
+      </c>
       <c r="G35" s="162"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="167" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
@@ -5161,27 +5318,31 @@
       </c>
       <c r="E36" s="169">
         <f>SUM(E26:E35)/D36 + E37*D37 + E38*D38 + E39*D39</f>
-        <v>0</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="F36" s="169"/>
       <c r="G36" s="170"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="199" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
       <c r="D37" s="203">
         <v>-0.15</v>
       </c>
-      <c r="E37" s="202"/>
+      <c r="E37" s="202">
+        <v>0.05</v>
+      </c>
       <c r="F37" s="202"/>
-      <c r="G37" s="204"/>
+      <c r="G37" s="204" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="154" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5194,7 +5355,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="205" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B39" s="206"/>
       <c r="C39" s="206"/>
@@ -5218,7 +5379,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B41" s="275"/>
       <c r="C41" s="275"/>
@@ -5229,19 +5390,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="179" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F42" s="180" t="s">
         <v>17</v>
@@ -5252,7 +5413,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="156" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B43" s="145">
         <v>0</v>
@@ -5272,7 +5433,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="175" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B44" s="176">
         <v>0</v>
@@ -5292,7 +5453,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="156" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B45" s="145">
         <v>0</v>
@@ -5312,7 +5473,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="175" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B46" s="176">
         <v>0</v>
@@ -5332,7 +5493,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="156" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B47" s="145">
         <v>0</v>
@@ -5352,7 +5513,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="175" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B48" s="176">
         <v>0</v>
@@ -5372,7 +5533,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="156" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B49" s="145">
         <v>0</v>
@@ -5392,7 +5553,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="175" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B50" s="176">
         <v>0</v>
@@ -5412,7 +5573,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="156" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B51" s="145">
         <v>0</v>
@@ -5432,7 +5593,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="175" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B52" s="176">
         <v>0</v>
@@ -5452,7 +5613,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="163" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B53" s="164"/>
       <c r="C53" s="164"/>
@@ -5469,7 +5630,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="175" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B54" s="182"/>
       <c r="C54" s="182"/>
@@ -5482,7 +5643,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="156" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B55" s="146"/>
       <c r="C55" s="146"/>
@@ -5495,7 +5656,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="185" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
@@ -5536,21 +5697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5682,14 +5828,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
--- a/Equipe107.xlsx
+++ b/Equipe107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB7B310-602D-4E40-8143-D7E2EACA1DD4}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{901E21E1-EC77-4E51-B93A-593EC373A0ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
   <si>
     <t>Fonct.</t>
   </si>
@@ -152,6 +152,11 @@
     <t>PlaceLetterService isFirstRound</t>
   </si>
   <si>
+    <t>LetterEaselComponent
+AdminService
+EndGameService</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -168,6 +173,9 @@
     <t>Les noms de fonction devraient contenir un verbe d'action</t>
   </si>
   <si>
+    <t>findLooserIndex</t>
+  </si>
+  <si>
     <t>2.2 Utilité</t>
   </si>
   <si>
@@ -256,6 +264,9 @@
     <t>Faites la difference entre variable locale et constantes (p.e: EQUAL_SORT_NUMBER)</t>
   </si>
   <si>
+    <t>Faites la difference entre variable locale et constantes (p.e: BIGGER_NUMBER_ONE_DIGIT)</t>
+  </si>
+  <si>
     <t>5. Expression booléennes</t>
   </si>
   <si>
@@ -291,6 +302,9 @@
 isCasePositionValid</t>
   </si>
   <si>
+    <t>includesArray</t>
+  </si>
+  <si>
     <t>5.4 Prédicats</t>
   </si>
   <si>
@@ -306,6 +320,10 @@
 isPositionFilled</t>
   </si>
   <si>
+    <t>checkIfAlreadyExists
+findExtendedWords</t>
+  </si>
+  <si>
     <t>6. Qualité générale</t>
   </si>
   <si>
@@ -367,6 +385,9 @@
     <t>Les objets anonymes Javascript ne sont pas utilisés, des classes ou des interfaces sont utilisés</t>
   </si>
   <si>
+    <t>Pas d'utilisation de document.getElementById</t>
+  </si>
+  <si>
     <t>6.8 Duplication</t>
   </si>
   <si>
@@ -389,10 +410,16 @@
     <t>Eslint disable sans justification + Erreurs de lint</t>
   </si>
   <si>
+    <t>lint disable sans justification: objectives.service.ts, dans isFirstWordValid si ni i ni word ne sont utilisés pourquoi un for?</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.10 Imbrication </t>
   </si>
   <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
+  </si>
+  <si>
+    <t>Pas toujours utilisé</t>
   </si>
   <si>
     <t>6.11 Performance</t>
@@ -583,7 +610,13 @@
     <t>3.1 Meilleurs scores</t>
   </si>
   <si>
+    <t>Le system doit gerer les cas où le server est down</t>
+  </si>
+  <si>
     <t>3.2 Mode admin</t>
+  </si>
+  <si>
+    <t>La modification du nom d'un dictionnaire est entre 4 et 12 caractères (trop petit pour tester certaines features)</t>
   </si>
   <si>
     <t>3.3. Joueur virtuel expert</t>
@@ -2098,138 +2131,141 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2280,9 +2316,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2766,22 +2799,22 @@
       </c>
       <c r="B6" s="219">
         <f>(Fonctionnalités!E53)</f>
-        <v>0</v>
+        <v>0.98659999999999992</v>
       </c>
       <c r="C6" s="220">
         <f>'Assurance Qualité'!I61</f>
-        <v>0</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="D6" s="220">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.93096000000000001</v>
       </c>
       <c r="F6" s="13">
         <v>20</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.619199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2809,8 +2842,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2829,36 +2862,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2878,36 +2911,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="241" t="s">
+      <c r="C6" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243" t="s">
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="248" t="s">
+      <c r="G6" s="251"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="249"/>
-      <c r="K6" s="250"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="257"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="245"/>
+      <c r="P6" s="245"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="240"/>
-      <c r="B7" s="252"/>
+      <c r="A7" s="247"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2943,26 +2976,26 @@
       <c r="Q7" s="221"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="229" t="s">
+      <c r="A8" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="225" t="s">
+      <c r="B8" s="264"/>
+      <c r="C8" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="226"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="225" t="s">
+      <c r="F8" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="226"/>
+      <c r="G8" s="269"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="225" t="s">
+      <c r="I8" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="226"/>
+      <c r="J8" s="269"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -2990,7 +3023,9 @@
         <v>3</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="55">
+        <v>1</v>
+      </c>
       <c r="J9" s="49">
         <v>3</v>
       </c>
@@ -3019,7 +3054,9 @@
         <v>2</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
       <c r="J10" s="34">
         <v>2</v>
       </c>
@@ -3050,7 +3087,9 @@
         <v>3</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>1</v>
+      </c>
       <c r="J11" s="34">
         <v>3</v>
       </c>
@@ -3081,7 +3120,9 @@
         <v>2</v>
       </c>
       <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>1</v>
+      </c>
       <c r="J12" s="34">
         <v>2</v>
       </c>
@@ -3114,19 +3155,23 @@
       <c r="H13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
       <c r="J13" s="34">
         <v>4</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="228"/>
+      <c r="A14" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="261"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>3</v>
@@ -3147,7 +3192,7 @@
       <c r="H14" s="92"/>
       <c r="I14" s="93">
         <f>SUMPRODUCT(I9:I13,J9:J13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J14" s="94">
         <f>SUM(J9:J13)</f>
@@ -3158,36 +3203,36 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="234" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="225" t="s">
+      <c r="A15" s="265" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="266"/>
+      <c r="C15" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="226"/>
+      <c r="D15" s="269"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="225" t="s">
+      <c r="F15" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="226"/>
+      <c r="G15" s="269"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="225" t="s">
+      <c r="I15" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="226"/>
+      <c r="J15" s="269"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="45">
       <c r="A16" s="78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="62">
         <v>0.75</v>
@@ -3196,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="68">
         <v>1</v>
@@ -3205,20 +3250,24 @@
         <v>2</v>
       </c>
       <c r="H16" s="70"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="74">
+        <v>0.75</v>
+      </c>
       <c r="J16" s="75">
         <v>2</v>
       </c>
-      <c r="K16" s="76"/>
+      <c r="K16" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="60">
       <c r="A17" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="45">
         <v>0.75</v>
@@ -3227,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="71">
         <v>1</v>
@@ -3236,7 +3285,9 @@
         <v>3</v>
       </c>
       <c r="H17" s="72"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="77">
+        <v>1</v>
+      </c>
       <c r="J17" s="44">
         <v>3</v>
       </c>
@@ -3246,10 +3297,10 @@
     </row>
     <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
@@ -3265,7 +3316,9 @@
         <v>3</v>
       </c>
       <c r="H18" s="72"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="77">
+        <v>1</v>
+      </c>
       <c r="J18" s="44">
         <v>3</v>
       </c>
@@ -3275,10 +3328,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="45">
         <v>1</v>
@@ -3294,7 +3347,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="72"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="77">
+        <v>1</v>
+      </c>
       <c r="J19" s="44">
         <v>3</v>
       </c>
@@ -3304,10 +3359,10 @@
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="45">
         <v>1</v>
@@ -3323,7 +3378,9 @@
         <v>2</v>
       </c>
       <c r="H20" s="72"/>
-      <c r="I20" s="77"/>
+      <c r="I20" s="77">
+        <v>1</v>
+      </c>
       <c r="J20" s="44">
         <v>2</v>
       </c>
@@ -3332,10 +3389,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="236" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="233"/>
+      <c r="A21" s="267" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="263"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>11.75</v>
@@ -3356,7 +3413,7 @@
       <c r="H21" s="103"/>
       <c r="I21" s="104">
         <f>SUMPRODUCT(I16:I20,J16:J20)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J21" s="105">
         <f>SUM(J16:J20)</f>
@@ -3367,36 +3424,36 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="229" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="230"/>
-      <c r="C22" s="225" t="s">
+      <c r="A22" s="233" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="264"/>
+      <c r="C22" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="226"/>
+      <c r="D22" s="269"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="225" t="s">
+      <c r="F22" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="226"/>
+      <c r="G22" s="269"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="225" t="s">
+      <c r="I22" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="226"/>
+      <c r="J22" s="269"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="60">
       <c r="A23" s="80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
@@ -3412,7 +3469,9 @@
         <v>2</v>
       </c>
       <c r="H23" s="111"/>
-      <c r="I23" s="114"/>
+      <c r="I23" s="114">
+        <v>1</v>
+      </c>
       <c r="J23" s="115">
         <v>2</v>
       </c>
@@ -3422,10 +3481,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="45">
         <v>1</v>
@@ -3441,7 +3500,9 @@
         <v>1</v>
       </c>
       <c r="H24" s="72"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="77">
+        <v>1</v>
+      </c>
       <c r="J24" s="44">
         <v>1</v>
       </c>
@@ -3451,10 +3512,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="45">
         <v>1</v>
@@ -3470,7 +3531,9 @@
         <v>1</v>
       </c>
       <c r="H25" s="72"/>
-      <c r="I25" s="77"/>
+      <c r="I25" s="77">
+        <v>1</v>
+      </c>
       <c r="J25" s="44">
         <v>1</v>
       </c>
@@ -3479,10 +3542,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="232" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="233"/>
+      <c r="A26" s="262" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="263"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3503,7 +3566,7 @@
       <c r="H26" s="103"/>
       <c r="I26" s="104">
         <f>SUMPRODUCT(I23:I25,J23:J25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="105">
         <f>SUM(J23:J25)</f>
@@ -3514,40 +3577,40 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="229" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="230"/>
-      <c r="C27" s="225" t="s">
+      <c r="A27" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="264"/>
+      <c r="C27" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="226"/>
+      <c r="D27" s="269"/>
       <c r="E27" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="226"/>
+      <c r="G27" s="269"/>
       <c r="H27" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="226"/>
+      <c r="J27" s="269"/>
       <c r="K27" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="45">
       <c r="A28" s="120" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="112">
         <v>0.75</v>
@@ -3556,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="113" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="107">
         <v>0.75</v>
@@ -3565,9 +3628,11 @@
         <v>2</v>
       </c>
       <c r="H28" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="118"/>
+        <v>62</v>
+      </c>
+      <c r="I28" s="118">
+        <v>1</v>
+      </c>
       <c r="J28" s="73">
         <v>2</v>
       </c>
@@ -3577,10 +3642,10 @@
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="45">
         <v>1</v>
@@ -3596,7 +3661,9 @@
         <v>2</v>
       </c>
       <c r="H29" s="43"/>
-      <c r="I29" s="77"/>
+      <c r="I29" s="77">
+        <v>1</v>
+      </c>
       <c r="J29" s="44">
         <v>2</v>
       </c>
@@ -3606,10 +3673,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="45">
         <v>1</v>
@@ -3625,7 +3692,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="43"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="77">
+        <v>1</v>
+      </c>
       <c r="J30" s="44">
         <v>2</v>
       </c>
@@ -3633,12 +3702,12 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="60">
+    <row r="31" spans="1:13" ht="75">
       <c r="A31" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="45">
         <v>1</v>
@@ -3654,21 +3723,25 @@
         <v>3</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="77"/>
+        <v>69</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J31" s="44">
         <v>3</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="228"/>
+      <c r="A32" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="261"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.5</v>
@@ -3689,7 +3762,7 @@
       <c r="H32" s="117"/>
       <c r="I32" s="104">
         <f>SUMPRODUCT(I28:I31,J28:J31)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J32" s="105">
         <f>SUM(J28:J31)</f>
@@ -3700,21 +3773,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="229" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="231"/>
-      <c r="C33" s="225" t="s">
+      <c r="A33" s="233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="234"/>
+      <c r="C33" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="226"/>
+      <c r="D33" s="269"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="225" t="s">
+      <c r="F33" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="226"/>
+      <c r="G33" s="269"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3726,10 +3799,10 @@
     </row>
     <row r="34" spans="1:13" ht="30">
       <c r="A34" s="120" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="112">
         <v>0</v>
@@ -3738,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="107">
         <v>0</v>
@@ -3747,9 +3820,11 @@
         <v>1</v>
       </c>
       <c r="H34" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="118"/>
+        <v>75</v>
+      </c>
+      <c r="I34" s="118">
+        <v>1</v>
+      </c>
       <c r="J34" s="73">
         <v>1</v>
       </c>
@@ -3759,10 +3834,10 @@
     </row>
     <row r="35" spans="1:13" ht="30">
       <c r="A35" s="56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C35" s="45">
         <v>1</v>
@@ -3778,7 +3853,9 @@
         <v>1</v>
       </c>
       <c r="H35" s="72"/>
-      <c r="I35" s="77"/>
+      <c r="I35" s="77">
+        <v>1</v>
+      </c>
       <c r="J35" s="44">
         <v>1</v>
       </c>
@@ -3788,10 +3865,10 @@
     </row>
     <row r="36" spans="1:13" ht="75">
       <c r="A36" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C36" s="45">
         <v>0.5</v>
@@ -3800,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F36" s="71">
         <v>0.5</v>
@@ -3809,22 +3886,26 @@
         <v>3</v>
       </c>
       <c r="H36" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="77"/>
+        <v>81</v>
+      </c>
+      <c r="I36" s="77">
+        <v>0.75</v>
+      </c>
       <c r="J36" s="44">
         <v>3</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="90">
       <c r="A37" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C37" s="45">
         <v>0.25</v>
@@ -3833,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="113" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F37" s="71">
         <v>0.5</v>
@@ -3842,21 +3923,25 @@
         <v>3</v>
       </c>
       <c r="H37" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="77"/>
+        <v>86</v>
+      </c>
+      <c r="I37" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J37" s="44">
         <v>3</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="46" t="s">
+        <v>87</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="228"/>
+      <c r="A38" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="261"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.25</v>
@@ -3877,7 +3962,7 @@
       <c r="H38" s="92"/>
       <c r="I38" s="104">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="J38" s="105">
         <f>SUM(J34:J37)</f>
@@ -3888,40 +3973,40 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="229" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="230"/>
-      <c r="C39" s="225" t="s">
+      <c r="A39" s="233" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="264"/>
+      <c r="C39" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="226"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="226"/>
+      <c r="G39" s="269"/>
       <c r="H39" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="226"/>
+      <c r="J39" s="269"/>
       <c r="K39" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="60">
       <c r="A40" s="78" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C40" s="84">
         <v>0.5</v>
@@ -3930,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F40" s="109">
         <v>1</v>
@@ -3939,7 +4024,9 @@
         <v>1</v>
       </c>
       <c r="H40" s="111"/>
-      <c r="I40" s="114"/>
+      <c r="I40" s="114">
+        <v>1</v>
+      </c>
       <c r="J40" s="115">
         <v>1</v>
       </c>
@@ -3949,10 +4036,10 @@
     </row>
     <row r="41" spans="1:13" ht="45">
       <c r="A41" s="21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C41" s="45">
         <v>0.5</v>
@@ -3961,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F41" s="71">
         <v>0.75</v>
@@ -3970,9 +4057,11 @@
         <v>4</v>
       </c>
       <c r="H41" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="77"/>
+        <v>95</v>
+      </c>
+      <c r="I41" s="77">
+        <v>1</v>
+      </c>
       <c r="J41" s="44">
         <v>4</v>
       </c>
@@ -3982,10 +4071,10 @@
     </row>
     <row r="42" spans="1:13" ht="30">
       <c r="A42" s="21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C42" s="45">
         <v>1</v>
@@ -4001,7 +4090,9 @@
         <v>3</v>
       </c>
       <c r="H42" s="72"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="77">
+        <v>1</v>
+      </c>
       <c r="J42" s="44">
         <v>3</v>
       </c>
@@ -4011,10 +4102,10 @@
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43" s="21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C43" s="45">
         <v>0.25</v>
@@ -4023,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F43" s="71">
         <v>1</v>
@@ -4032,7 +4123,9 @@
         <v>2</v>
       </c>
       <c r="H43" s="72"/>
-      <c r="I43" s="77"/>
+      <c r="I43" s="77">
+        <v>1</v>
+      </c>
       <c r="J43" s="44">
         <v>2</v>
       </c>
@@ -4041,10 +4134,10 @@
     </row>
     <row r="44" spans="1:13" ht="45">
       <c r="A44" s="21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C44" s="35">
         <v>1</v>
@@ -4053,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F44" s="37">
         <v>1</v>
@@ -4062,7 +4155,9 @@
         <v>2</v>
       </c>
       <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
       <c r="J44" s="34">
         <v>2</v>
       </c>
@@ -4072,10 +4167,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C45" s="35">
         <v>1</v>
@@ -4091,7 +4186,9 @@
         <v>3</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
       <c r="J45" s="34">
         <v>3</v>
       </c>
@@ -4099,12 +4196,12 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="30">
+    <row r="46" spans="1:13" ht="45">
       <c r="A46" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C46" s="45">
         <v>1</v>
@@ -4120,20 +4217,24 @@
         <v>3</v>
       </c>
       <c r="H46" s="72"/>
-      <c r="I46" s="77"/>
+      <c r="I46" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J46" s="44">
         <v>3</v>
       </c>
-      <c r="K46" s="46"/>
+      <c r="K46" s="46" t="s">
+        <v>108</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="60">
       <c r="A47" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C47" s="45">
         <v>0.5</v>
@@ -4142,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F47" s="71">
         <v>0.75</v>
@@ -4151,9 +4252,11 @@
         <v>6</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="77"/>
+        <v>112</v>
+      </c>
+      <c r="I47" s="77">
+        <v>1</v>
+      </c>
       <c r="J47" s="44">
         <v>6</v>
       </c>
@@ -4161,12 +4264,12 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="45">
+    <row r="48" spans="1:13" ht="90">
       <c r="A48" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C48" s="45">
         <v>0</v>
@@ -4175,7 +4278,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F48" s="71">
         <v>1</v>
@@ -4184,20 +4287,24 @@
         <v>8</v>
       </c>
       <c r="H48" s="72"/>
-      <c r="I48" s="77"/>
+      <c r="I48" s="77">
+        <v>0.5</v>
+      </c>
       <c r="J48" s="44">
         <v>8</v>
       </c>
-      <c r="K48" s="46"/>
+      <c r="K48" s="46" t="s">
+        <v>116</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="30">
       <c r="A49" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C49" s="45">
         <v>1</v>
@@ -4213,20 +4320,24 @@
         <v>6</v>
       </c>
       <c r="H49" s="72"/>
-      <c r="I49" s="77"/>
+      <c r="I49" s="77">
+        <v>0.75</v>
+      </c>
       <c r="J49" s="44">
         <v>6</v>
       </c>
-      <c r="K49" s="46"/>
+      <c r="K49" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="21" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C50" s="45">
         <v>1</v>
@@ -4242,7 +4353,9 @@
         <v>3</v>
       </c>
       <c r="H50" s="72"/>
-      <c r="I50" s="77"/>
+      <c r="I50" s="77">
+        <v>1</v>
+      </c>
       <c r="J50" s="44">
         <v>3</v>
       </c>
@@ -4251,10 +4364,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="15.75">
-      <c r="A51" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="228"/>
+      <c r="A51" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="261"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>26</v>
@@ -4275,7 +4388,7 @@
       <c r="H51" s="92"/>
       <c r="I51" s="93">
         <f>SUMPRODUCT(I40:I50,J40:J50)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J51" s="94">
         <f>SUM(J40:J50)</f>
@@ -4286,36 +4399,36 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="229" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="231"/>
-      <c r="C52" s="225" t="s">
+      <c r="A52" s="233" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="234"/>
+      <c r="C52" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="226"/>
+      <c r="D52" s="269"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="225" t="s">
+      <c r="F52" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="226"/>
+      <c r="G52" s="269"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="225" t="s">
+      <c r="I52" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="226"/>
+      <c r="J52" s="269"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="30">
       <c r="A53" s="78" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C53" s="112">
         <v>1</v>
@@ -4331,7 +4444,9 @@
         <v>2</v>
       </c>
       <c r="H53" s="111"/>
-      <c r="I53" s="127"/>
+      <c r="I53" s="127">
+        <v>1</v>
+      </c>
       <c r="J53" s="128">
         <v>2</v>
       </c>
@@ -4341,10 +4456,10 @@
     </row>
     <row r="54" spans="1:13" ht="30">
       <c r="A54" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C54" s="45">
         <v>0</v>
@@ -4353,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F54" s="71">
         <v>1</v>
@@ -4362,7 +4477,9 @@
         <v>2</v>
       </c>
       <c r="H54" s="72"/>
-      <c r="I54" s="130"/>
+      <c r="I54" s="130">
+        <v>1</v>
+      </c>
       <c r="J54" s="124">
         <v>2</v>
       </c>
@@ -4372,10 +4489,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="56" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C55" s="45">
         <v>0</v>
@@ -4391,7 +4508,9 @@
         <v>1</v>
       </c>
       <c r="H55" s="72"/>
-      <c r="I55" s="130"/>
+      <c r="I55" s="130">
+        <v>1</v>
+      </c>
       <c r="J55" s="124">
         <v>1</v>
       </c>
@@ -4401,10 +4520,10 @@
     </row>
     <row r="56" spans="1:13" ht="120">
       <c r="A56" s="56" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C56" s="45">
         <v>0.5</v>
@@ -4413,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F56" s="71">
         <v>1</v>
@@ -4422,7 +4541,9 @@
         <v>4</v>
       </c>
       <c r="H56" s="72"/>
-      <c r="I56" s="130"/>
+      <c r="I56" s="130">
+        <v>1</v>
+      </c>
       <c r="J56" s="124">
         <v>4</v>
       </c>
@@ -4432,10 +4553,10 @@
     </row>
     <row r="57" spans="1:13" ht="45">
       <c r="A57" s="21" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C57" s="45">
         <v>1</v>
@@ -4451,7 +4572,9 @@
         <v>2</v>
       </c>
       <c r="H57" s="72"/>
-      <c r="I57" s="130"/>
+      <c r="I57" s="130">
+        <v>1</v>
+      </c>
       <c r="J57" s="124">
         <v>2</v>
       </c>
@@ -4460,10 +4583,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="228"/>
+      <c r="A58" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="261"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4484,7 +4607,7 @@
       <c r="H58" s="103"/>
       <c r="I58" s="93">
         <f>SUMPRODUCT(I53:I57,J53:J57)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J58" s="94">
         <f>SUM(J53:J57)</f>
@@ -4495,27 +4618,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="253" t="s">
+      <c r="A59" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="254"/>
-      <c r="K59" s="255"/>
+      <c r="B59" s="227"/>
+      <c r="C59" s="227"/>
+      <c r="D59" s="227"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="227"/>
+      <c r="H59" s="227"/>
+      <c r="I59" s="227"/>
+      <c r="J59" s="227"/>
+      <c r="K59" s="228"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="105">
-      <c r="A60" s="256" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="257"/>
+      <c r="A60" s="229" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="230"/>
       <c r="C60" s="133">
         <f>C14+C21+C26+C32+C38+C51+C58</f>
         <v>62.5</v>
@@ -4525,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="64" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F60" s="134">
         <f t="shared" si="0"/>
@@ -4538,7 +4661,7 @@
       <c r="H60" s="70"/>
       <c r="I60" s="135">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84.75</v>
       </c>
       <c r="J60" s="125">
         <f t="shared" si="0"/>
@@ -4549,67 +4672,33 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="258" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="259"/>
-      <c r="C61" s="260">
+      <c r="A61" s="231" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="232"/>
+      <c r="C61" s="235">
         <f>C60/D60</f>
         <v>0.625</v>
       </c>
-      <c r="D61" s="261"/>
-      <c r="E61" s="262"/>
-      <c r="F61" s="263">
+      <c r="D61" s="236"/>
+      <c r="E61" s="237"/>
+      <c r="F61" s="238">
         <f>F60/G60</f>
         <v>0.90249999999999997</v>
       </c>
-      <c r="G61" s="264"/>
-      <c r="H61" s="265"/>
-      <c r="I61" s="266">
+      <c r="G61" s="239"/>
+      <c r="H61" s="240"/>
+      <c r="I61" s="241">
         <f>I60/J60</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="267"/>
-      <c r="K61" s="268"/>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="J61" s="242"/>
+      <c r="K61" s="243"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4624,6 +4713,40 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4645,8 +4768,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4660,15 +4783,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="139"/>
@@ -4681,7 +4804,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="137" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
@@ -4692,42 +4815,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="24" thickBot="1">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="279"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="280"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="161" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="280"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="281"/>
+        <v>139</v>
+      </c>
+      <c r="B7" s="281"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="281"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="282"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="210" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B8" s="189" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D8" s="189" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="189" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F8" s="189" t="s">
         <v>17</v>
@@ -4738,7 +4861,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="148" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B9" s="141">
         <v>1</v>
@@ -4754,13 +4877,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="149"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="191" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B10" s="192">
         <v>0.9</v>
@@ -4776,13 +4899,13 @@
         <v>4.5</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" s="193"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="148" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B11" s="141">
         <v>0.75</v>
@@ -4798,13 +4921,13 @@
         <v>6.75</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="149"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="191" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B12" s="192">
         <v>1</v>
@@ -4820,13 +4943,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="192" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" s="193"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="148" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B13" s="141">
         <v>1</v>
@@ -4845,12 +4968,12 @@
         <v>18</v>
       </c>
       <c r="G13" s="224" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="148" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B14" s="141">
         <v>1</v>
@@ -4869,12 +4992,12 @@
         <v>18</v>
       </c>
       <c r="G14" s="149" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="191" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B15" s="192">
         <v>0.95</v>
@@ -4893,12 +5016,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="193" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
       <c r="A16" s="148" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B16" s="141">
         <v>0.8</v>
@@ -4917,12 +5040,12 @@
         <v>18</v>
       </c>
       <c r="G16" s="224" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="191" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B17" s="192">
         <v>1</v>
@@ -4944,7 +5067,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="148" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B18" s="141">
         <v>0</v>
@@ -4960,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="149"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="191" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B19" s="192">
         <v>1</v>
@@ -4985,15 +5108,15 @@
         <v>18</v>
       </c>
       <c r="G19" s="193" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="171" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="282"/>
-      <c r="C20" s="282"/>
+        <v>159</v>
+      </c>
+      <c r="B20" s="283"/>
+      <c r="C20" s="283"/>
       <c r="D20" s="223">
         <f>SUM(D9:D19)</f>
         <v>100</v>
@@ -5007,7 +5130,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="191" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -5019,12 +5142,12 @@
       </c>
       <c r="F21" s="194"/>
       <c r="G21" s="196" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="150" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
@@ -5036,42 +5159,42 @@
       <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" ht="24" thickBot="1">
-      <c r="A23" s="283" t="s">
+      <c r="A23" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="284"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="285"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="286"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="270"/>
-      <c r="C24" s="270"/>
-      <c r="D24" s="270"/>
-      <c r="E24" s="270"/>
-      <c r="F24" s="270"/>
-      <c r="G24" s="271"/>
+        <v>139</v>
+      </c>
+      <c r="B24" s="271"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="271"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="271"/>
+      <c r="G24" s="272"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="209" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B25" s="197" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="197" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D25" s="197" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="197" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F25" s="197" t="s">
         <v>17</v>
@@ -5082,7 +5205,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="154" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B26" s="142">
         <v>0.9</v>
@@ -5098,15 +5221,15 @@
         <v>21.6</v>
       </c>
       <c r="F26" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="286" t="s">
-        <v>156</v>
+        <v>58</v>
+      </c>
+      <c r="G26" s="225" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="199" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B27" s="200">
         <v>1</v>
@@ -5128,7 +5251,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="154" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B28" s="142">
         <v>1</v>
@@ -5150,7 +5273,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="199" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B29" s="200">
         <v>1</v>
@@ -5166,13 +5289,13 @@
         <v>8</v>
       </c>
       <c r="F29" s="200" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G29" s="201"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="154" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B30" s="142">
         <v>1</v>
@@ -5188,13 +5311,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G30" s="162"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="199" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B31" s="200">
         <v>1</v>
@@ -5216,7 +5339,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="154" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B32" s="142">
         <v>0.95</v>
@@ -5235,12 +5358,12 @@
         <v>18</v>
       </c>
       <c r="G32" s="162" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="199" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B33" s="200">
         <v>1</v>
@@ -5256,13 +5379,13 @@
         <v>4</v>
       </c>
       <c r="F33" s="200" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="201"/>
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="154" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B34" s="142">
         <v>1</v>
@@ -5280,13 +5403,13 @@
       <c r="F34" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="286" t="s">
-        <v>166</v>
+      <c r="G34" s="225" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="154" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B35" s="142">
         <v>1</v>
@@ -5302,13 +5425,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" s="162"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="167" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B36" s="168"/>
       <c r="C36" s="168"/>
@@ -5325,7 +5448,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="199" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
@@ -5337,12 +5460,12 @@
       </c>
       <c r="F37" s="202"/>
       <c r="G37" s="204" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="154" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5355,7 +5478,7 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="205" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B39" s="206"/>
       <c r="C39" s="206"/>
@@ -5367,42 +5490,42 @@
       <c r="G39" s="208"/>
     </row>
     <row r="40" spans="1:7" ht="24" thickBot="1">
-      <c r="A40" s="272" t="s">
+      <c r="A40" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="273"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="274"/>
+      <c r="B40" s="274"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="274"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="275"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="159" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="275"/>
-      <c r="C41" s="275"/>
-      <c r="D41" s="275"/>
-      <c r="E41" s="275"/>
-      <c r="F41" s="275"/>
-      <c r="G41" s="276"/>
+        <v>139</v>
+      </c>
+      <c r="B41" s="276"/>
+      <c r="C41" s="276"/>
+      <c r="D41" s="276"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="276"/>
+      <c r="G41" s="277"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="178" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="179" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D42" s="179" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="179" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F42" s="180" t="s">
         <v>17</v>
@@ -5413,207 +5536,231 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="156" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B43" s="145">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C43" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="145">
         <v>14</v>
       </c>
       <c r="E43" s="145">
         <f t="shared" ref="E43:E52" si="2">B43*C43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="145"/>
-      <c r="G43" s="157"/>
+        <v>13.16</v>
+      </c>
+      <c r="F43" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="157" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="175" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B44" s="176">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C44" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="176">
         <v>10</v>
       </c>
       <c r="E44" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="176"/>
-      <c r="G44" s="177"/>
+        <v>9.5</v>
+      </c>
+      <c r="F44" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="177" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="156" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B45" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="145">
         <v>12</v>
       </c>
       <c r="E45" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="145"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="145" t="s">
+        <v>58</v>
+      </c>
       <c r="G45" s="157"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="175" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B46" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="176">
         <v>18</v>
       </c>
       <c r="E46" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="176"/>
+        <v>18</v>
+      </c>
+      <c r="F46" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G46" s="177"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="156" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B47" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="145">
         <v>16</v>
       </c>
       <c r="E47" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="145"/>
+        <v>16</v>
+      </c>
+      <c r="F47" s="145" t="s">
+        <v>18</v>
+      </c>
       <c r="G47" s="157"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="175" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B48" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="176">
         <v>6</v>
       </c>
       <c r="E48" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="176"/>
+        <v>6</v>
+      </c>
+      <c r="F48" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G48" s="177"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="156" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B49" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="145">
         <v>6</v>
       </c>
       <c r="E49" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="145"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="145" t="s">
+        <v>58</v>
+      </c>
       <c r="G49" s="157"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="175" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B50" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="176">
         <v>6</v>
       </c>
       <c r="E50" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="176"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G50" s="177"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="156" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B51" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="145">
         <v>8</v>
       </c>
       <c r="E51" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="145"/>
+        <v>8</v>
+      </c>
+      <c r="F51" s="145" t="s">
+        <v>58</v>
+      </c>
       <c r="G51" s="157"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="175" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B52" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="176">
         <v>4</v>
       </c>
       <c r="E52" s="176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="176"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="176" t="s">
+        <v>18</v>
+      </c>
       <c r="G52" s="177"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="163" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B53" s="164"/>
       <c r="C53" s="164"/>
@@ -5623,14 +5770,14 @@
       </c>
       <c r="E53" s="165">
         <f>SUM(E43:E52)/D53 + D54*E54  + D55*E55 + D56*E56</f>
-        <v>0</v>
+        <v>0.98659999999999992</v>
       </c>
       <c r="F53" s="165"/>
       <c r="G53" s="166"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="175" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B54" s="182"/>
       <c r="C54" s="182"/>
@@ -5643,7 +5790,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="156" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B55" s="146"/>
       <c r="C55" s="146"/>
@@ -5656,7 +5803,7 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="185" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
@@ -5697,6 +5844,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5828,12 +5981,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5844,11 +5991,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Equipe107.xlsx
+++ b/Equipe107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{901E21E1-EC77-4E51-B93A-593EC373A0ED}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{50A2320D-A701-4D43-9EC9-8C1EC60D081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB379E4-57A4-4326-BE74-A6F09DD3A761}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -2134,6 +2134,90 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2155,12 +2239,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="16" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2187,84 +2265,6 @@
     </xf>
     <xf numFmtId="9" fontId="16" fillId="10" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2319,13 +2319,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2708,8 +2708,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2823,13 +2823,15 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>0.68</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2862,36 +2864,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2911,36 +2913,36 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="248" t="s">
+      <c r="C6" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="250" t="s">
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="251"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="255" t="s">
+      <c r="G6" s="245"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="256"/>
-      <c r="K6" s="257"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="245"/>
-      <c r="P6" s="245"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="239"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1">
-      <c r="A7" s="247"/>
-      <c r="B7" s="259"/>
+      <c r="A7" s="241"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
@@ -2976,26 +2978,26 @@
       <c r="Q7" s="221"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A8" s="233" t="s">
+      <c r="A8" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="264"/>
-      <c r="C8" s="268" t="s">
+      <c r="B8" s="231"/>
+      <c r="C8" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="269"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="268" t="s">
+      <c r="F8" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="269"/>
+      <c r="G8" s="227"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="268" t="s">
+      <c r="I8" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="269"/>
+      <c r="J8" s="227"/>
       <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -3168,10 +3170,10 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="260" t="s">
+      <c r="A14" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="261"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="87">
         <f>SUMPRODUCT(C9:C13,D9:D13)</f>
         <v>3</v>
@@ -3203,26 +3205,26 @@
       <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="268" t="s">
+      <c r="B15" s="236"/>
+      <c r="C15" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="269"/>
+      <c r="D15" s="227"/>
       <c r="E15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="268" t="s">
+      <c r="F15" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="269"/>
+      <c r="G15" s="227"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="268" t="s">
+      <c r="I15" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="269"/>
+      <c r="J15" s="227"/>
       <c r="K15" s="60"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -3389,10 +3391,10 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A21" s="267" t="s">
+      <c r="A21" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="263"/>
+      <c r="B21" s="234"/>
       <c r="C21" s="98">
         <f>SUMPRODUCT(C16:C20,D16:D20)</f>
         <v>11.75</v>
@@ -3424,26 +3426,26 @@
       <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="233" t="s">
+      <c r="A22" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="264"/>
-      <c r="C22" s="268" t="s">
+      <c r="B22" s="231"/>
+      <c r="C22" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="269"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="268" t="s">
+      <c r="F22" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="269"/>
+      <c r="G22" s="227"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="268" t="s">
+      <c r="I22" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="269"/>
+      <c r="J22" s="227"/>
       <c r="K22" s="60"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3542,10 +3544,10 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A26" s="262" t="s">
+      <c r="A26" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="263"/>
+      <c r="B26" s="234"/>
       <c r="C26" s="87">
         <f>SUMPRODUCT(C23:C25,D23:D25)</f>
         <v>4</v>
@@ -3577,28 +3579,28 @@
       <c r="M26" s="96"/>
     </row>
     <row r="27" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A27" s="233" t="s">
+      <c r="A27" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="264"/>
-      <c r="C27" s="268" t="s">
+      <c r="B27" s="231"/>
+      <c r="C27" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="269"/>
+      <c r="D27" s="227"/>
       <c r="E27" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="268" t="s">
+      <c r="F27" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="269"/>
+      <c r="G27" s="227"/>
       <c r="H27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="268" t="s">
+      <c r="I27" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="269"/>
+      <c r="J27" s="227"/>
       <c r="K27" s="60" t="s">
         <v>58</v>
       </c>
@@ -3738,10 +3740,10 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="261"/>
+      <c r="B32" s="229"/>
       <c r="C32" s="87">
         <f>SUMPRODUCT(C28:C31,D28:D31)</f>
         <v>8.5</v>
@@ -3773,21 +3775,21 @@
       <c r="M32" s="96"/>
     </row>
     <row r="33" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A33" s="233" t="s">
+      <c r="A33" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="268" t="s">
+      <c r="B33" s="232"/>
+      <c r="C33" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="269"/>
+      <c r="D33" s="227"/>
       <c r="E33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="268" t="s">
+      <c r="F33" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="269"/>
+      <c r="G33" s="227"/>
       <c r="H33" s="60"/>
       <c r="I33" s="58" t="s">
         <v>17</v>
@@ -3938,10 +3940,10 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="261"/>
+      <c r="B38" s="229"/>
       <c r="C38" s="122">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>3.25</v>
@@ -3973,28 +3975,28 @@
       <c r="M38" s="96"/>
     </row>
     <row r="39" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A39" s="233" t="s">
+      <c r="A39" s="230" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="264"/>
-      <c r="C39" s="268" t="s">
+      <c r="B39" s="231"/>
+      <c r="C39" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="269"/>
+      <c r="D39" s="227"/>
       <c r="E39" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="268" t="s">
+      <c r="F39" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="269"/>
+      <c r="G39" s="227"/>
       <c r="H39" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="268" t="s">
+      <c r="I39" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="269"/>
+      <c r="J39" s="227"/>
       <c r="K39" s="60" t="s">
         <v>58</v>
       </c>
@@ -4364,10 +4366,10 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" s="97" customFormat="1" ht="15.75">
-      <c r="A51" s="260" t="s">
+      <c r="A51" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="261"/>
+      <c r="B51" s="229"/>
       <c r="C51" s="132">
         <f>SUMPRODUCT(C40:C50,D40:D50)</f>
         <v>26</v>
@@ -4399,26 +4401,26 @@
       <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A52" s="233" t="s">
+      <c r="A52" s="230" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="234"/>
-      <c r="C52" s="268" t="s">
+      <c r="B52" s="232"/>
+      <c r="C52" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="269"/>
+      <c r="D52" s="227"/>
       <c r="E52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="268" t="s">
+      <c r="F52" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="269"/>
+      <c r="G52" s="227"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="268" t="s">
+      <c r="I52" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="269"/>
+      <c r="J52" s="227"/>
       <c r="K52" s="60"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
@@ -4583,10 +4585,10 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A58" s="260" t="s">
+      <c r="A58" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="261"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="98">
         <f>SUMPRODUCT(C53:C57,D53:D57)</f>
         <v>6</v>
@@ -4618,27 +4620,27 @@
       <c r="M58" s="96"/>
     </row>
     <row r="59" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
-      <c r="A59" s="226" t="s">
+      <c r="A59" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="227"/>
-      <c r="C59" s="227"/>
-      <c r="D59" s="227"/>
-      <c r="E59" s="227"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="227"/>
-      <c r="H59" s="227"/>
-      <c r="I59" s="227"/>
-      <c r="J59" s="227"/>
-      <c r="K59" s="228"/>
+      <c r="B59" s="255"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="255"/>
+      <c r="E59" s="255"/>
+      <c r="F59" s="255"/>
+      <c r="G59" s="255"/>
+      <c r="H59" s="255"/>
+      <c r="I59" s="255"/>
+      <c r="J59" s="255"/>
+      <c r="K59" s="256"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="105">
-      <c r="A60" s="229" t="s">
+      <c r="A60" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="230"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="133">
         <f>C14+C21+C26+C32+C38+C51+C58</f>
         <v>62.5</v>
@@ -4672,33 +4674,67 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A61" s="231" t="s">
+      <c r="A61" s="259" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="232"/>
-      <c r="C61" s="235">
+      <c r="B61" s="260"/>
+      <c r="C61" s="261">
         <f>C60/D60</f>
         <v>0.625</v>
       </c>
-      <c r="D61" s="236"/>
-      <c r="E61" s="237"/>
-      <c r="F61" s="238">
+      <c r="D61" s="262"/>
+      <c r="E61" s="263"/>
+      <c r="F61" s="264">
         <f>F60/G60</f>
         <v>0.90249999999999997</v>
       </c>
-      <c r="G61" s="239"/>
-      <c r="H61" s="240"/>
-      <c r="I61" s="241">
+      <c r="G61" s="265"/>
+      <c r="H61" s="266"/>
+      <c r="I61" s="267">
         <f>I60/J60</f>
         <v>0.84750000000000003</v>
       </c>
-      <c r="J61" s="242"/>
-      <c r="K61" s="243"/>
+      <c r="J61" s="268"/>
+      <c r="K61" s="269"/>
       <c r="L61" s="136"/>
       <c r="M61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="I22:J22"/>
@@ -4713,40 +4749,6 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L21 L26 L32 L38 L51" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -4768,7 +4770,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -5850,6 +5852,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5981,23 +5992,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>